--- a/DateBase/orders/Nhat 48_2026-1-11.xlsx
+++ b/DateBase/orders/Nhat 48_2026-1-11.xlsx
@@ -743,6 +743,9 @@
       <c r="G2" t="str">
         <v>010810101051055555555554551355205122525</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
